--- a/public/results.xlsx
+++ b/public/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="349">
   <si>
     <t>RESULTS</t>
   </si>
@@ -130,6 +130,213 @@
     <t>TAHMEED</t>
   </si>
   <si>
+    <t>AUY57</t>
+  </si>
+  <si>
+    <t>DICTONARY FINDING ARB</t>
+  </si>
+  <si>
+    <t>DA618</t>
+  </si>
+  <si>
+    <t>ISHAK K</t>
+  </si>
+  <si>
+    <t>DA792</t>
+  </si>
+  <si>
+    <t>RAEES</t>
+  </si>
+  <si>
+    <t>DA677</t>
+  </si>
+  <si>
+    <t>SAMIR RAZA</t>
+  </si>
+  <si>
+    <t>ABY54</t>
+  </si>
+  <si>
+    <t>MATH TALENT</t>
+  </si>
+  <si>
+    <t>BIDAYAH</t>
+  </si>
+  <si>
+    <t>DA887</t>
+  </si>
+  <si>
+    <t>AINAYAT</t>
+  </si>
+  <si>
+    <t>DA878</t>
+  </si>
+  <si>
+    <t>MOHAMMED ASAD</t>
+  </si>
+  <si>
+    <t>DA759</t>
+  </si>
+  <si>
+    <t>SHAKEER</t>
+  </si>
+  <si>
+    <t>ATY54</t>
+  </si>
+  <si>
+    <t>GRAMMAR QUIZ</t>
+  </si>
+  <si>
+    <t>DA982</t>
+  </si>
+  <si>
+    <t>SYED SAIF</t>
+  </si>
+  <si>
+    <t>DA938</t>
+  </si>
+  <si>
+    <t>ANSARI MUHAMMED RAZA</t>
+  </si>
+  <si>
+    <t>DA770</t>
+  </si>
+  <si>
+    <t>MOIZ ASIF</t>
+  </si>
+  <si>
+    <t>AUY46</t>
+  </si>
+  <si>
+    <t>WA'Z</t>
+  </si>
+  <si>
+    <t>DA964</t>
+  </si>
+  <si>
+    <t>BILAL</t>
+  </si>
+  <si>
+    <t>DA622</t>
+  </si>
+  <si>
+    <t>ALFAZ ALAM</t>
+  </si>
+  <si>
+    <t>DA871</t>
+  </si>
+  <si>
+    <t>RASHID ANSARI</t>
+  </si>
+  <si>
+    <t>ABY44</t>
+  </si>
+  <si>
+    <t>READING ENG</t>
+  </si>
+  <si>
+    <t>DA698</t>
+  </si>
+  <si>
+    <t>MUZAMMIL</t>
+  </si>
+  <si>
+    <t>DA829</t>
+  </si>
+  <si>
+    <t>NAWAB</t>
+  </si>
+  <si>
+    <t>DA538</t>
+  </si>
+  <si>
+    <t>BABA FAKRUDDIN</t>
+  </si>
+  <si>
+    <t>ABY43</t>
+  </si>
+  <si>
+    <t>READDING HND</t>
+  </si>
+  <si>
+    <t>DA525</t>
+  </si>
+  <si>
+    <t>ARIF ALAM</t>
+  </si>
+  <si>
+    <t>DA868</t>
+  </si>
+  <si>
+    <t>SAGIR ANSARI</t>
+  </si>
+  <si>
+    <t>DA798</t>
+  </si>
+  <si>
+    <t>AFSAR ALAM</t>
+  </si>
+  <si>
+    <t>ABY34</t>
+  </si>
+  <si>
+    <t>SPEECH URD</t>
+  </si>
+  <si>
+    <t>DA573</t>
+  </si>
+  <si>
+    <t>UMAR FAROOQ</t>
+  </si>
+  <si>
+    <t>DA781</t>
+  </si>
+  <si>
+    <t>HAMMAD HYDER</t>
+  </si>
+  <si>
+    <t>DA783</t>
+  </si>
+  <si>
+    <t>TABREJ AALAM</t>
+  </si>
+  <si>
+    <t>ABY33</t>
+  </si>
+  <si>
+    <t>SPEECH TLG</t>
+  </si>
+  <si>
+    <t>DA574</t>
+  </si>
+  <si>
+    <t>S MOHAMMED RIHAN</t>
+  </si>
+  <si>
+    <t>DA873</t>
+  </si>
+  <si>
+    <t>SUBHAN</t>
+  </si>
+  <si>
+    <t>AUY62</t>
+  </si>
+  <si>
+    <t>RUBICS CUBE</t>
+  </si>
+  <si>
+    <t>DA858</t>
+  </si>
+  <si>
+    <t>MOHAMMED SUFIYAN</t>
+  </si>
+  <si>
+    <t>DA705</t>
+  </si>
+  <si>
+    <t>FASI</t>
+  </si>
+  <si>
     <t>ATX2</t>
   </si>
   <si>
@@ -142,10 +349,181 @@
     <t>MOHAMMED RAZA</t>
   </si>
   <si>
-    <t>DA770</t>
-  </si>
-  <si>
-    <t>MOIZ ASIF</t>
+    <t>AUY45</t>
+  </si>
+  <si>
+    <t>PICK AND TALK TLG</t>
+  </si>
+  <si>
+    <t>DA968</t>
+  </si>
+  <si>
+    <t>ZAKRIYA</t>
+  </si>
+  <si>
+    <t>DA966</t>
+  </si>
+  <si>
+    <t>SHIAK HUSAIN BASHA</t>
+  </si>
+  <si>
+    <t>AUZ66</t>
+  </si>
+  <si>
+    <t>CONVERSATION TLG</t>
+  </si>
+  <si>
+    <t>NIZAM &amp; Team</t>
+  </si>
+  <si>
+    <t>TOUQEER &amp; Team</t>
+  </si>
+  <si>
+    <t>SHAIK ARSHAD &amp; Team</t>
+  </si>
+  <si>
+    <t>AUZ69</t>
+  </si>
+  <si>
+    <t>MASHUP</t>
+  </si>
+  <si>
+    <t>SHOUIAB &amp; Team</t>
+  </si>
+  <si>
+    <t>ATY53</t>
+  </si>
+  <si>
+    <t>MATHS TALENT</t>
+  </si>
+  <si>
+    <t>DA526</t>
+  </si>
+  <si>
+    <t>FAZL E RASOOL</t>
+  </si>
+  <si>
+    <t>AUZ65</t>
+  </si>
+  <si>
+    <t>CONVERSATION URD</t>
+  </si>
+  <si>
+    <t>MAJID RAZA &amp; Team</t>
+  </si>
+  <si>
+    <t>RAEES &amp; Team</t>
+  </si>
+  <si>
+    <t>DILSHAN ANSARI &amp; Team</t>
+  </si>
+  <si>
+    <t>ABY38</t>
+  </si>
+  <si>
+    <t>SONG ARB</t>
+  </si>
+  <si>
+    <t>DA748</t>
+  </si>
+  <si>
+    <t>QUMAR ALAM</t>
+  </si>
+  <si>
+    <t>DA782</t>
+  </si>
+  <si>
+    <t>EKRAM</t>
+  </si>
+  <si>
+    <t>ATY52</t>
+  </si>
+  <si>
+    <t>SCIENCE MASTER</t>
+  </si>
+  <si>
+    <t>DA635</t>
+  </si>
+  <si>
+    <t>AJMAL KHAN</t>
+  </si>
+  <si>
+    <t>DA601</t>
+  </si>
+  <si>
+    <t>DANISH ANSARI</t>
+  </si>
+  <si>
+    <t>ABY55</t>
+  </si>
+  <si>
+    <t>DICTONARY FINDING ENG</t>
+  </si>
+  <si>
+    <t>DA852</t>
+  </si>
+  <si>
+    <t>MOHAMMED SHARIM</t>
+  </si>
+  <si>
+    <t>DA729</t>
+  </si>
+  <si>
+    <t>ABDUL RAHAMAN</t>
+  </si>
+  <si>
+    <t>ABY32</t>
+  </si>
+  <si>
+    <t>SPEECH ENG</t>
+  </si>
+  <si>
+    <t>DA753</t>
+  </si>
+  <si>
+    <t>SHAIK AFAN</t>
+  </si>
+  <si>
+    <t>DA883</t>
+  </si>
+  <si>
+    <t>RAKKAN</t>
+  </si>
+  <si>
+    <t>AUY43</t>
+  </si>
+  <si>
+    <t>PICK AND TALK ENG</t>
+  </si>
+  <si>
+    <t>DA768</t>
+  </si>
+  <si>
+    <t>ZAI AHMED RAZA KHAN</t>
+  </si>
+  <si>
+    <t>DA757</t>
+  </si>
+  <si>
+    <t>NADEEM</t>
+  </si>
+  <si>
+    <t>DA934</t>
+  </si>
+  <si>
+    <t>MOHAMMED THOUSIF</t>
+  </si>
+  <si>
+    <t>DA613</t>
+  </si>
+  <si>
+    <t>MUJAHID</t>
+  </si>
+  <si>
+    <t>AUY37</t>
+  </si>
+  <si>
+    <t>SPEECH ARB</t>
   </si>
   <si>
     <t>ATX14</t>
@@ -154,39 +532,12 @@
     <t>POEM WRITING ARB</t>
   </si>
   <si>
-    <t>DA982</t>
-  </si>
-  <si>
-    <t>SYED SAIF</t>
-  </si>
-  <si>
     <t>ABX7</t>
   </si>
   <si>
     <t>SHORT STORY WRITING URD</t>
   </si>
   <si>
-    <t>BIDAYAH</t>
-  </si>
-  <si>
-    <t>DA781</t>
-  </si>
-  <si>
-    <t>HAMMAD HYDER</t>
-  </si>
-  <si>
-    <t>DA868</t>
-  </si>
-  <si>
-    <t>SAGIR ANSARI</t>
-  </si>
-  <si>
-    <t>DA887</t>
-  </si>
-  <si>
-    <t>AINAYAT</t>
-  </si>
-  <si>
     <t>ABX9</t>
   </si>
   <si>
@@ -205,6 +556,57 @@
     <t>UZAIR</t>
   </si>
   <si>
+    <t>ABY36</t>
+  </si>
+  <si>
+    <t>SONG URD</t>
+  </si>
+  <si>
+    <t>DA775</t>
+  </si>
+  <si>
+    <t>DANISH RAZA</t>
+  </si>
+  <si>
+    <t>ABY47</t>
+  </si>
+  <si>
+    <t>READING ARB</t>
+  </si>
+  <si>
+    <t>ABY50</t>
+  </si>
+  <si>
+    <t>ABY49</t>
+  </si>
+  <si>
+    <t>DA859</t>
+  </si>
+  <si>
+    <t>ABDUL ARIF</t>
+  </si>
+  <si>
+    <t>DA774</t>
+  </si>
+  <si>
+    <t>SHAIK HAFEEZ</t>
+  </si>
+  <si>
+    <t>ABZ65</t>
+  </si>
+  <si>
+    <t>SPEECH &amp; SONG</t>
+  </si>
+  <si>
+    <t>DANISH RAZA &amp; Team</t>
+  </si>
+  <si>
+    <t>SHAM SHEER &amp; Team</t>
+  </si>
+  <si>
+    <t>AFSAR ALAM &amp; Team</t>
+  </si>
+  <si>
     <t>AUX2</t>
   </si>
   <si>
@@ -235,22 +637,10 @@
     <t>ESSAY WRITING ENG</t>
   </si>
   <si>
-    <t>DA768</t>
-  </si>
-  <si>
-    <t>ZAI AHMED RAZA KHAN</t>
-  </si>
-  <si>
-    <t>DA757</t>
-  </si>
-  <si>
-    <t>NADEEM</t>
-  </si>
-  <si>
-    <t>DA613</t>
-  </si>
-  <si>
-    <t>MUJAHID</t>
+    <t>ABY45</t>
+  </si>
+  <si>
+    <t>READING URD</t>
   </si>
   <si>
     <t>AUX12</t>
@@ -295,16 +685,22 @@
     <t>DILSHAN ANSARI</t>
   </si>
   <si>
-    <t>DA964</t>
-  </si>
-  <si>
-    <t>BILAL</t>
-  </si>
-  <si>
-    <t>DA677</t>
-  </si>
-  <si>
-    <t>SAMIR RAZA</t>
+    <t>ATY55</t>
+  </si>
+  <si>
+    <t>ALFIYA CONTEST</t>
+  </si>
+  <si>
+    <t>DA733</t>
+  </si>
+  <si>
+    <t>SHAFAQATULLAH</t>
+  </si>
+  <si>
+    <t>AUY35</t>
+  </si>
+  <si>
+    <t>AUY34</t>
   </si>
   <si>
     <t>ATX9</t>
@@ -319,6 +715,39 @@
     <t>RAYYAN</t>
   </si>
   <si>
+    <t>AUY56</t>
+  </si>
+  <si>
+    <t>DA790</t>
+  </si>
+  <si>
+    <t>S MOIN BASHA</t>
+  </si>
+  <si>
+    <t>DA975</t>
+  </si>
+  <si>
+    <t>SIDDIQ</t>
+  </si>
+  <si>
+    <t>AUY42</t>
+  </si>
+  <si>
+    <t>PICK AND TALK URD</t>
+  </si>
+  <si>
+    <t>DA611</t>
+  </si>
+  <si>
+    <t>MD REHAN AHMED</t>
+  </si>
+  <si>
+    <t>AUY47</t>
+  </si>
+  <si>
+    <t>ANA NAHVI</t>
+  </si>
+  <si>
     <t>AUY53</t>
   </si>
   <si>
@@ -328,18 +757,39 @@
     <t>KHASIM</t>
   </si>
   <si>
+    <t>ATY40</t>
+  </si>
+  <si>
+    <t>ABARAS SUTHUR</t>
+  </si>
+  <si>
+    <t>DA737</t>
+  </si>
+  <si>
+    <t>MD INAMUL HAQ</t>
+  </si>
+  <si>
+    <t>AUY36</t>
+  </si>
+  <si>
+    <t>DA620</t>
+  </si>
+  <si>
+    <t>MD AASHIQ</t>
+  </si>
+  <si>
+    <t>DA683</t>
+  </si>
+  <si>
+    <t>NYAB ASHRAF</t>
+  </si>
+  <si>
     <t>ATX18</t>
   </si>
   <si>
     <t>ABSTRACT WRITING ENG</t>
   </si>
   <si>
-    <t>DA635</t>
-  </si>
-  <si>
-    <t>AJMAL KHAN</t>
-  </si>
-  <si>
     <t>DA638</t>
   </si>
   <si>
@@ -403,18 +853,24 @@
     <t>ESSAY WRITING ARB</t>
   </si>
   <si>
-    <t>DA601</t>
-  </si>
-  <si>
-    <t>DANISH ANSARI</t>
-  </si>
-  <si>
     <t>ATX7</t>
   </si>
   <si>
     <t>NEWS WRITING ARB</t>
   </si>
   <si>
+    <t>ATY51</t>
+  </si>
+  <si>
+    <t>KHUTBAH</t>
+  </si>
+  <si>
+    <t>DA686</t>
+  </si>
+  <si>
+    <t>NUNAM ALI</t>
+  </si>
+  <si>
     <t>AUX6</t>
   </si>
   <si>
@@ -427,18 +883,84 @@
     <t>TOUQEER</t>
   </si>
   <si>
+    <t>ATY41</t>
+  </si>
+  <si>
+    <t>FACE THE BOOK</t>
+  </si>
+  <si>
+    <t>DA953</t>
+  </si>
+  <si>
+    <t>ZAID</t>
+  </si>
+  <si>
+    <t>DA553</t>
+  </si>
+  <si>
+    <t>SAHIL ANSARI</t>
+  </si>
+  <si>
+    <t>ATZ62</t>
+  </si>
+  <si>
+    <t>SPEECH AND SONG URD</t>
+  </si>
+  <si>
+    <t>ANSARI INAIF SADIQ &amp; Team</t>
+  </si>
+  <si>
+    <t>FAZL E RASOOL &amp; Team</t>
+  </si>
+  <si>
+    <t>SAHIL ANSARI &amp; Team</t>
+  </si>
+  <si>
+    <t>MOHAMMED RAZA &amp; Team</t>
+  </si>
+  <si>
+    <t>ATZ63</t>
+  </si>
+  <si>
+    <t>FATWA PANEL</t>
+  </si>
+  <si>
+    <t>SYED SAIF &amp; Team</t>
+  </si>
+  <si>
+    <t>ATZ64</t>
+  </si>
+  <si>
+    <t>TALEEM ASSUNNAH</t>
+  </si>
+  <si>
+    <t>SOHAIL &amp; Team</t>
+  </si>
+  <si>
+    <t>AUY50</t>
+  </si>
+  <si>
+    <t>MR JUNIOR</t>
+  </si>
+  <si>
+    <t>DA749</t>
+  </si>
+  <si>
+    <t>AJMAL ANSARI</t>
+  </si>
+  <si>
+    <t>DA951</t>
+  </si>
+  <si>
+    <t>BHUKHARI</t>
+  </si>
+  <si>
     <t>ATX22</t>
   </si>
   <si>
     <t>EXCEL MASTER</t>
   </si>
   <si>
-    <t>DA938</t>
-  </si>
-  <si>
-    <t>ANSARI MUHAMMED RAZA</t>
-  </si>
-  <si>
     <t>DA608</t>
   </si>
   <si>
@@ -466,21 +988,12 @@
     <t>DA800</t>
   </si>
   <si>
-    <t>MUZAMMIL</t>
-  </si>
-  <si>
     <t>AUX26</t>
   </si>
   <si>
     <t>POWERPOINT CREATION</t>
   </si>
   <si>
-    <t>DA934</t>
-  </si>
-  <si>
-    <t>MOHAMMED THOUSIF</t>
-  </si>
-  <si>
     <t>AUX5</t>
   </si>
   <si>
@@ -493,10 +1006,58 @@
     <t>ALAUL MUSTAFA</t>
   </si>
   <si>
-    <t>DA620</t>
-  </si>
-  <si>
-    <t>MD AASHIQ</t>
+    <t>AUZ70</t>
+  </si>
+  <si>
+    <t>INSTANT NEWS PAPER</t>
+  </si>
+  <si>
+    <t>MUJAHID &amp; Team</t>
+  </si>
+  <si>
+    <t>AJAZ KHAN &amp; Team</t>
+  </si>
+  <si>
+    <t>ATZ67</t>
+  </si>
+  <si>
+    <t>TV NEWS READING URD</t>
+  </si>
+  <si>
+    <t>SHAFAQATULLAH &amp; Team</t>
+  </si>
+  <si>
+    <t>HAMMAD RAJA &amp; Team</t>
+  </si>
+  <si>
+    <t>ABY31</t>
+  </si>
+  <si>
+    <t>MAP STUDY</t>
+  </si>
+  <si>
+    <t>DA603</t>
+  </si>
+  <si>
+    <t>SYED SUFIYAN</t>
+  </si>
+  <si>
+    <t>ATY44</t>
+  </si>
+  <si>
+    <t>DEBATE URD</t>
+  </si>
+  <si>
+    <t>DA945</t>
+  </si>
+  <si>
+    <t>TOUSIF</t>
+  </si>
+  <si>
+    <t>DA502</t>
+  </si>
+  <si>
+    <t>TASIR HUSAIN</t>
   </si>
 </sst>
 </file>
@@ -666,16 +1227,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L201"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
@@ -1312,7 +1873,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>18</v>
@@ -1327,7 +1888,7 @@
         <v>42</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -1365,7 +1926,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J10" s="12">
         <v>0</v>
@@ -1397,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
@@ -1420,75 +1981,75 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="6">
+        <v>5</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="9">
+        <v>5</v>
+      </c>
+      <c r="K13" s="9">
         <v>2</v>
       </c>
-      <c r="L12" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>3</v>
-      </c>
-      <c r="L13" s="7">
-        <v>3</v>
+      <c r="L13" s="10">
+        <v>7</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1505,10 +2066,10 @@
         <v>23</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>54</v>
@@ -1520,89 +2081,89 @@
         <v>22</v>
       </c>
       <c r="J14" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3</v>
+      </c>
+      <c r="K15" s="6">
+        <v>3</v>
+      </c>
+      <c r="L15" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="12">
+        <v>3</v>
+      </c>
+      <c r="K16" s="12">
         <v>2</v>
       </c>
-      <c r="L14" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>1</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>2</v>
-      </c>
-      <c r="L16" s="7">
-        <v>2</v>
+      <c r="L16" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1631,7 +2192,7 @@
         <v>63</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
@@ -1645,7 +2206,7 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>64</v>
@@ -1659,8 +2220,8 @@
       <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>1</v>
+      <c r="F18" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>66</v>
@@ -1672,13 +2233,13 @@
         <v>22</v>
       </c>
       <c r="J18" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" s="6">
         <v>3</v>
       </c>
       <c r="L18" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1697,8 +2258,8 @@
       <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>1</v>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>68</v>
@@ -1707,16 +2268,16 @@
         <v>69</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J19" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="9">
         <v>2</v>
       </c>
       <c r="L19" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1759,7 +2320,7 @@
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>72</v>
@@ -1768,7 +2329,7 @@
         <v>73</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>18</v>
@@ -1811,8 +2372,8 @@
       <c r="E22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>1</v>
+      <c r="F22" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>76</v>
@@ -1824,13 +2385,13 @@
         <v>22</v>
       </c>
       <c r="J22" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="12">
         <v>2</v>
       </c>
       <c r="L22" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1873,7 +2434,7 @@
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>80</v>
@@ -1882,13 +2443,13 @@
         <v>81</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>82</v>
@@ -1900,13 +2461,13 @@
         <v>22</v>
       </c>
       <c r="J24" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" s="6">
         <v>3</v>
       </c>
       <c r="L24" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1925,8 +2486,8 @@
       <c r="E25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>1</v>
+      <c r="F25" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>84</v>
@@ -1935,16 +2496,16 @@
         <v>85</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J25" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25" s="9">
         <v>2</v>
       </c>
       <c r="L25" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1961,10 +2522,10 @@
         <v>23</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>86</v>
@@ -1976,89 +2537,89 @@
         <v>31</v>
       </c>
       <c r="J26" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="12">
+        <v>1</v>
+      </c>
+      <c r="L26" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="6">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6">
+        <v>3</v>
+      </c>
+      <c r="L27" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="12">
+        <v>5</v>
+      </c>
+      <c r="K28" s="12">
         <v>2</v>
       </c>
-      <c r="L26" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>10</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="6">
-        <v>3</v>
-      </c>
-      <c r="K28" s="6">
-        <v>3</v>
-      </c>
-      <c r="L28" s="7">
-        <v>6</v>
+      <c r="L28" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2075,28 +2636,28 @@
         <v>23</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2112,105 +2673,105 @@
       <c r="D30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>1</v>
+      <c r="E30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>31</v>
       </c>
       <c r="J30" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>11</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9">
+        <v>3</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="6">
-        <v>3</v>
-      </c>
-      <c r="K31" s="6">
-        <v>3</v>
-      </c>
-      <c r="L31" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="12">
-        <v>3</v>
-      </c>
-      <c r="K32" s="12">
-        <v>2</v>
-      </c>
-      <c r="L32" s="13">
-        <v>5</v>
+      <c r="I32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>3</v>
+      </c>
+      <c r="L32" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2227,142 +2788,142 @@
         <v>23</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>2</v>
+      </c>
+      <c r="L33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="9">
-        <v>3</v>
-      </c>
-      <c r="K33" s="9">
-        <v>1</v>
-      </c>
-      <c r="L33" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>12</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="F34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>11</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="G35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="K34" s="6">
-        <v>3</v>
-      </c>
-      <c r="L34" s="7">
+      <c r="K35" s="6">
+        <v>3</v>
+      </c>
+      <c r="L35" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="35" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="9" t="s">
+    <row r="36" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="9">
-        <v>3</v>
-      </c>
-      <c r="K35" s="9">
+      <c r="F36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="12">
+        <v>5</v>
+      </c>
+      <c r="K36" s="12">
         <v>2</v>
       </c>
-      <c r="L35" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>13</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>3</v>
-      </c>
-      <c r="L36" s="7">
-        <v>3</v>
+      <c r="L36" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2379,104 +2940,104 @@
         <v>23</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="9">
+        <v>3</v>
+      </c>
+      <c r="K37" s="9">
+        <v>1</v>
+      </c>
+      <c r="L37" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>12</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>3</v>
+      </c>
+      <c r="L38" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
+      <c r="F39" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
         <v>2</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L39" s="10">
         <v>2</v>
-      </c>
-    </row>
-    <row r="38" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="12">
-        <v>0</v>
-      </c>
-      <c r="K38" s="12">
-        <v>1</v>
-      </c>
-      <c r="L38" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>14</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>3</v>
-      </c>
-      <c r="L39" s="7">
-        <v>3</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2493,7 +3054,7 @@
         <v>23</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>1</v>
@@ -2511,86 +3072,86 @@
         <v>0</v>
       </c>
       <c r="K40" s="12">
+        <v>1</v>
+      </c>
+      <c r="L40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>13</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>3</v>
+      </c>
+      <c r="L41" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
         <v>2</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L42" s="13">
         <v>2</v>
-      </c>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>1</v>
-      </c>
-      <c r="L41" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>15</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="6">
-        <v>5</v>
-      </c>
-      <c r="K42" s="6">
-        <v>3</v>
-      </c>
-      <c r="L42" s="7">
-        <v>8</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2607,104 +3168,104 @@
         <v>23</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J43" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>14</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>7</v>
+      </c>
+      <c r="L44" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="12">
-        <v>3</v>
-      </c>
-      <c r="K44" s="12">
-        <v>1</v>
-      </c>
-      <c r="L44" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>16</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="6">
+      <c r="L45" s="10">
         <v>5</v>
-      </c>
-      <c r="K45" s="6">
-        <v>3</v>
-      </c>
-      <c r="L45" s="7">
-        <v>8</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2721,103 +3282,103 @@
         <v>23</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="12">
+        <v>3</v>
+      </c>
+      <c r="L46" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>15</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="12">
-        <v>3</v>
-      </c>
-      <c r="K46" s="12">
-        <v>2</v>
-      </c>
-      <c r="L46" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="9">
-        <v>3</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="10">
-        <v>3</v>
+      <c r="G47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="6">
+        <v>3</v>
+      </c>
+      <c r="K47" s="6">
+        <v>7</v>
+      </c>
+      <c r="L47" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="12" t="s">
+      <c r="A48" s="5">
+        <v>16</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="C48" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="12">
-        <v>3</v>
-      </c>
-      <c r="K48" s="12">
-        <v>0</v>
-      </c>
-      <c r="L48" s="13">
+      <c r="D48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>3</v>
+      </c>
+      <c r="L48" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2834,105 +3395,105 @@
       <c r="D49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>28</v>
+      <c r="E49" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J49" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K49" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="K50" s="12">
+        <v>1</v>
+      </c>
+      <c r="L50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>17</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="B51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I50" s="6" t="s">
+      <c r="F51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="6">
-        <v>3</v>
-      </c>
-      <c r="K50" s="6">
-        <v>3</v>
-      </c>
-      <c r="L50" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J51" s="9">
-        <v>3</v>
-      </c>
-      <c r="K51" s="9">
-        <v>2</v>
-      </c>
-      <c r="L51" s="10">
-        <v>5</v>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>7</v>
+      </c>
+      <c r="L51" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2949,104 +3510,104 @@
         <v>23</v>
       </c>
       <c r="E52" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="12">
+        <v>5</v>
+      </c>
+      <c r="L52" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" s="12">
-        <v>0</v>
-      </c>
-      <c r="K52" s="12">
-        <v>1</v>
-      </c>
-      <c r="L52" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="F53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>3</v>
+      </c>
+      <c r="L53" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>18</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="B54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <v>3</v>
-      </c>
-      <c r="L53" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="12">
-        <v>0</v>
-      </c>
-      <c r="K54" s="12">
-        <v>2</v>
-      </c>
-      <c r="L54" s="13">
-        <v>2</v>
+      <c r="F54" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>3</v>
+      </c>
+      <c r="L54" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3063,142 +3624,142 @@
         <v>23</v>
       </c>
       <c r="E55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>2</v>
+      </c>
+      <c r="L55" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55" s="9">
-        <v>0</v>
-      </c>
-      <c r="K55" s="9">
-        <v>1</v>
-      </c>
-      <c r="L55" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="F56" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <v>1</v>
+      </c>
+      <c r="L56" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>19</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="B57" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="6">
+      <c r="F57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="6">
+        <v>3</v>
+      </c>
+      <c r="K57" s="6">
+        <v>3</v>
+      </c>
+      <c r="L57" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="12">
+        <v>3</v>
+      </c>
+      <c r="K58" s="12">
+        <v>2</v>
+      </c>
+      <c r="L58" s="13">
         <v>5</v>
-      </c>
-      <c r="K56" s="6">
-        <v>3</v>
-      </c>
-      <c r="L56" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="9">
-        <v>3</v>
-      </c>
-      <c r="K57" s="9">
-        <v>1</v>
-      </c>
-      <c r="L57" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>20</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="6">
-        <v>5</v>
-      </c>
-      <c r="K58" s="6">
-        <v>3</v>
-      </c>
-      <c r="L58" s="7">
-        <v>8</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3215,104 +3776,104 @@
         <v>23</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J59" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K59" s="9">
+        <v>1</v>
+      </c>
+      <c r="L59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>20</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="6">
+        <v>3</v>
+      </c>
+      <c r="K60" s="6">
+        <v>3</v>
+      </c>
+      <c r="L60" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
         <v>2</v>
       </c>
-      <c r="L59" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J60" s="12">
-        <v>3</v>
-      </c>
-      <c r="K60" s="12">
-        <v>1</v>
-      </c>
-      <c r="L60" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>21</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J61" s="6">
-        <v>3</v>
-      </c>
-      <c r="K61" s="6">
-        <v>3</v>
-      </c>
-      <c r="L61" s="7">
-        <v>6</v>
+      <c r="L61" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3329,66 +3890,66 @@
         <v>23</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="I62" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+      <c r="K62" s="12">
+        <v>1</v>
+      </c>
+      <c r="L62" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>21</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J62" s="12">
-        <v>3</v>
-      </c>
-      <c r="K62" s="12">
-        <v>2</v>
-      </c>
-      <c r="L62" s="13">
+      <c r="J63" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J63" s="9">
-        <v>3</v>
-      </c>
-      <c r="K63" s="9">
-        <v>0</v>
-      </c>
-      <c r="L63" s="10">
-        <v>3</v>
+      <c r="K63" s="6">
+        <v>3</v>
+      </c>
+      <c r="L63" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3407,140 +3968,140 @@
       <c r="E64" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>1</v>
+      <c r="F64" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J64" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K64" s="12">
         <v>2</v>
       </c>
       <c r="L64" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9">
+        <v>1</v>
+      </c>
+      <c r="L65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>22</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" s="6">
+        <v>3</v>
+      </c>
+      <c r="K66" s="6">
+        <v>3</v>
+      </c>
+      <c r="L66" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="9">
+        <v>3</v>
+      </c>
+      <c r="K67" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>22</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="6">
-        <v>3</v>
-      </c>
-      <c r="K65" s="6">
-        <v>2</v>
-      </c>
-      <c r="L65" s="7">
+      <c r="L67" s="10">
         <v>5</v>
-      </c>
-    </row>
-    <row r="66" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J66" s="12">
-        <v>3</v>
-      </c>
-      <c r="K66" s="12">
-        <v>0</v>
-      </c>
-      <c r="L66" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>23</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J67" s="6">
-        <v>3</v>
-      </c>
-      <c r="K67" s="6">
-        <v>3</v>
-      </c>
-      <c r="L67" s="7">
-        <v>6</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3557,16 +4118,16 @@
         <v>23</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>31</v>
@@ -3575,51 +4136,5029 @@
         <v>3</v>
       </c>
       <c r="K68" s="12">
+        <v>1</v>
+      </c>
+      <c r="L68" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="9">
+        <v>3</v>
+      </c>
+      <c r="K69" s="9">
+        <v>0</v>
+      </c>
+      <c r="L69" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>23</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="6">
+        <v>5</v>
+      </c>
+      <c r="K70" s="6">
+        <v>3</v>
+      </c>
+      <c r="L70" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" s="9">
+        <v>5</v>
+      </c>
+      <c r="K71" s="9">
         <v>2</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L71" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" s="12">
+        <v>3</v>
+      </c>
+      <c r="K72" s="12">
+        <v>1</v>
+      </c>
+      <c r="L72" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>24</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <v>2</v>
+      </c>
+      <c r="L73" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>25</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>3</v>
+      </c>
+      <c r="L74" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="9">
+        <v>0</v>
+      </c>
+      <c r="K75" s="9">
+        <v>2</v>
+      </c>
+      <c r="L75" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="12">
+        <v>0</v>
+      </c>
+      <c r="K76" s="12">
+        <v>1</v>
+      </c>
+      <c r="L76" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>26</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>2</v>
+      </c>
+      <c r="L77" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="12">
+        <v>0</v>
+      </c>
+      <c r="K78" s="12">
+        <v>1</v>
+      </c>
+      <c r="L78" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>27</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <v>3</v>
+      </c>
+      <c r="L79" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="12">
+        <v>0</v>
+      </c>
+      <c r="K80" s="12">
+        <v>2</v>
+      </c>
+      <c r="L80" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="9">
+        <v>0</v>
+      </c>
+      <c r="K81" s="9">
+        <v>1</v>
+      </c>
+      <c r="L81" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>28</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1</v>
+      </c>
+      <c r="L82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>29</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="18" t="s">
+      <c r="K83" s="6">
+        <v>3</v>
+      </c>
+      <c r="L83" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="12">
+        <v>3</v>
+      </c>
+      <c r="K84" s="12">
+        <v>2</v>
+      </c>
+      <c r="L84" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" s="18">
-        <v>0</v>
-      </c>
-      <c r="K69" s="18">
-        <v>1</v>
-      </c>
-      <c r="L69" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F85" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="9">
+        <v>3</v>
+      </c>
+      <c r="K85" s="9">
+        <v>1</v>
+      </c>
+      <c r="L85" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>30</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <v>3</v>
+      </c>
+      <c r="L86" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="9">
+        <v>0</v>
+      </c>
+      <c r="K87" s="9">
+        <v>2</v>
+      </c>
+      <c r="L87" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88" s="12">
+        <v>0</v>
+      </c>
+      <c r="K88" s="12">
+        <v>1</v>
+      </c>
+      <c r="L88" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>31</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <v>7</v>
+      </c>
+      <c r="L89" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="12">
+        <v>0</v>
+      </c>
+      <c r="K90" s="12">
+        <v>5</v>
+      </c>
+      <c r="L90" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91" s="9">
+        <v>0</v>
+      </c>
+      <c r="K91" s="9">
+        <v>3</v>
+      </c>
+      <c r="L91" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>32</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <v>3</v>
+      </c>
+      <c r="L92" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J93" s="9">
+        <v>0</v>
+      </c>
+      <c r="K93" s="9">
+        <v>2</v>
+      </c>
+      <c r="L93" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" s="12">
+        <v>0</v>
+      </c>
+      <c r="K94" s="12">
+        <v>1</v>
+      </c>
+      <c r="L94" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>33</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" s="6">
+        <v>3</v>
+      </c>
+      <c r="K95" s="6">
+        <v>3</v>
+      </c>
+      <c r="L95" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="12">
+        <v>0</v>
+      </c>
+      <c r="K96" s="12">
+        <v>2</v>
+      </c>
+      <c r="L96" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="9">
+        <v>0</v>
+      </c>
+      <c r="K97" s="9">
+        <v>1</v>
+      </c>
+      <c r="L97" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>34</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <v>3</v>
+      </c>
+      <c r="L98" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="9">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9">
+        <v>2</v>
+      </c>
+      <c r="L99" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" s="12">
+        <v>0</v>
+      </c>
+      <c r="K100" s="12">
+        <v>1</v>
+      </c>
+      <c r="L100" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>35</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="6">
+        <v>3</v>
+      </c>
+      <c r="K101" s="6">
+        <v>3</v>
+      </c>
+      <c r="L101" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J102" s="12">
+        <v>0</v>
+      </c>
+      <c r="K102" s="12">
+        <v>2</v>
+      </c>
+      <c r="L102" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" s="9">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9">
+        <v>2</v>
+      </c>
+      <c r="L103" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J104" s="12">
+        <v>0</v>
+      </c>
+      <c r="K104" s="12">
+        <v>1</v>
+      </c>
+      <c r="L104" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>36</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" s="6">
+        <v>3</v>
+      </c>
+      <c r="K105" s="6">
+        <v>3</v>
+      </c>
+      <c r="L105" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="12">
+        <v>0</v>
+      </c>
+      <c r="K106" s="12">
+        <v>2</v>
+      </c>
+      <c r="L106" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="9">
+        <v>0</v>
+      </c>
+      <c r="K107" s="9">
+        <v>1</v>
+      </c>
+      <c r="L107" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>37</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" s="6">
+        <v>3</v>
+      </c>
+      <c r="K108" s="6">
+        <v>3</v>
+      </c>
+      <c r="L108" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" s="9">
+        <v>3</v>
+      </c>
+      <c r="K109" s="9">
+        <v>2</v>
+      </c>
+      <c r="L109" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" s="12">
+        <v>3</v>
+      </c>
+      <c r="K110" s="12">
+        <v>1</v>
+      </c>
+      <c r="L110" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="9">
+        <v>3</v>
+      </c>
+      <c r="K111" s="9">
+        <v>0</v>
+      </c>
+      <c r="L111" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>38</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="6">
+        <v>0</v>
+      </c>
+      <c r="K112" s="6">
+        <v>3</v>
+      </c>
+      <c r="L112" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="9">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9">
+        <v>2</v>
+      </c>
+      <c r="L113" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114" s="12">
+        <v>0</v>
+      </c>
+      <c r="K114" s="12">
+        <v>1</v>
+      </c>
+      <c r="L114" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>39</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="6">
+        <v>3</v>
+      </c>
+      <c r="K115" s="6">
+        <v>3</v>
+      </c>
+      <c r="L115" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J116" s="12">
+        <v>3</v>
+      </c>
+      <c r="K116" s="12">
+        <v>2</v>
+      </c>
+      <c r="L116" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="9">
+        <v>3</v>
+      </c>
+      <c r="K117" s="9">
+        <v>1</v>
+      </c>
+      <c r="L117" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="12">
+        <v>3</v>
+      </c>
+      <c r="K118" s="12">
+        <v>0</v>
+      </c>
+      <c r="L118" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>40</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="6">
+        <v>3</v>
+      </c>
+      <c r="K119" s="6">
+        <v>3</v>
+      </c>
+      <c r="L119" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="12">
+        <v>3</v>
+      </c>
+      <c r="K120" s="12">
+        <v>2</v>
+      </c>
+      <c r="L120" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="9">
+        <v>3</v>
+      </c>
+      <c r="K121" s="9">
+        <v>1</v>
+      </c>
+      <c r="L121" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>41</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J122" s="6">
+        <v>3</v>
+      </c>
+      <c r="K122" s="6">
+        <v>3</v>
+      </c>
+      <c r="L122" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J123" s="9">
+        <v>0</v>
+      </c>
+      <c r="K123" s="9">
+        <v>2</v>
+      </c>
+      <c r="L123" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="12">
+        <v>0</v>
+      </c>
+      <c r="K124" s="12">
+        <v>1</v>
+      </c>
+      <c r="L124" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>42</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="6">
+        <v>0</v>
+      </c>
+      <c r="K125" s="6">
+        <v>3</v>
+      </c>
+      <c r="L125" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="12">
+        <v>0</v>
+      </c>
+      <c r="K126" s="12">
+        <v>2</v>
+      </c>
+      <c r="L126" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="9">
+        <v>0</v>
+      </c>
+      <c r="K127" s="9">
+        <v>1</v>
+      </c>
+      <c r="L127" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>43</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="6">
+        <v>3</v>
+      </c>
+      <c r="K128" s="6">
+        <v>3</v>
+      </c>
+      <c r="L128" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="9">
+        <v>0</v>
+      </c>
+      <c r="K129" s="9">
+        <v>2</v>
+      </c>
+      <c r="L129" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J130" s="12">
+        <v>0</v>
+      </c>
+      <c r="K130" s="12">
+        <v>1</v>
+      </c>
+      <c r="L130" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>44</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="6">
+        <v>5</v>
+      </c>
+      <c r="K131" s="6">
+        <v>3</v>
+      </c>
+      <c r="L131" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="12">
+        <v>3</v>
+      </c>
+      <c r="K132" s="12">
+        <v>2</v>
+      </c>
+      <c r="L132" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>45</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="6">
+        <v>3</v>
+      </c>
+      <c r="K133" s="6">
+        <v>3</v>
+      </c>
+      <c r="L133" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" s="12">
+        <v>3</v>
+      </c>
+      <c r="K134" s="12">
+        <v>2</v>
+      </c>
+      <c r="L134" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" s="9">
+        <v>3</v>
+      </c>
+      <c r="K135" s="9">
+        <v>1</v>
+      </c>
+      <c r="L135" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
+        <v>46</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J136" s="6">
+        <v>5</v>
+      </c>
+      <c r="K136" s="6">
+        <v>3</v>
+      </c>
+      <c r="L136" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="9">
+        <v>3</v>
+      </c>
+      <c r="K137" s="9">
+        <v>2</v>
+      </c>
+      <c r="L137" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J138" s="12">
+        <v>3</v>
+      </c>
+      <c r="K138" s="12">
+        <v>1</v>
+      </c>
+      <c r="L138" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="9">
+        <v>3</v>
+      </c>
+      <c r="K139" s="9">
+        <v>0</v>
+      </c>
+      <c r="L139" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <v>47</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J140" s="6">
+        <v>0</v>
+      </c>
+      <c r="K140" s="6">
+        <v>3</v>
+      </c>
+      <c r="L140" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J141" s="9">
+        <v>0</v>
+      </c>
+      <c r="K141" s="9">
+        <v>2</v>
+      </c>
+      <c r="L141" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J142" s="12">
+        <v>0</v>
+      </c>
+      <c r="K142" s="12">
+        <v>1</v>
+      </c>
+      <c r="L142" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>48</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J143" s="6">
+        <v>0</v>
+      </c>
+      <c r="K143" s="6">
+        <v>3</v>
+      </c>
+      <c r="L143" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" s="12">
+        <v>0</v>
+      </c>
+      <c r="K144" s="12">
+        <v>2</v>
+      </c>
+      <c r="L144" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="9">
+        <v>0</v>
+      </c>
+      <c r="K145" s="9">
+        <v>1</v>
+      </c>
+      <c r="L145" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
+        <v>49</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="6">
+        <v>5</v>
+      </c>
+      <c r="K146" s="6">
+        <v>3</v>
+      </c>
+      <c r="L146" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J147" s="9">
+        <v>3</v>
+      </c>
+      <c r="K147" s="9">
+        <v>2</v>
+      </c>
+      <c r="L147" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H148" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" s="12">
+        <v>3</v>
+      </c>
+      <c r="K148" s="12">
+        <v>1</v>
+      </c>
+      <c r="L148" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>50</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J149" s="6">
+        <v>5</v>
+      </c>
+      <c r="K149" s="6">
+        <v>3</v>
+      </c>
+      <c r="L149" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" s="12">
+        <v>3</v>
+      </c>
+      <c r="K150" s="12">
+        <v>2</v>
+      </c>
+      <c r="L150" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J151" s="9">
+        <v>3</v>
+      </c>
+      <c r="K151" s="9">
+        <v>0</v>
+      </c>
+      <c r="L151" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J152" s="12">
+        <v>3</v>
+      </c>
+      <c r="K152" s="12">
+        <v>0</v>
+      </c>
+      <c r="L152" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" s="9">
+        <v>3</v>
+      </c>
+      <c r="K153" s="9">
+        <v>0</v>
+      </c>
+      <c r="L153" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="5">
+        <v>51</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J154" s="6">
+        <v>3</v>
+      </c>
+      <c r="K154" s="6">
+        <v>3</v>
+      </c>
+      <c r="L154" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J155" s="9">
+        <v>3</v>
+      </c>
+      <c r="K155" s="9">
+        <v>2</v>
+      </c>
+      <c r="L155" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J156" s="12">
+        <v>0</v>
+      </c>
+      <c r="K156" s="12">
+        <v>1</v>
+      </c>
+      <c r="L156" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>52</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J157" s="6">
+        <v>0</v>
+      </c>
+      <c r="K157" s="6">
+        <v>3</v>
+      </c>
+      <c r="L157" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H158" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" s="12">
+        <v>0</v>
+      </c>
+      <c r="K158" s="12">
+        <v>2</v>
+      </c>
+      <c r="L158" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J159" s="9">
+        <v>0</v>
+      </c>
+      <c r="K159" s="9">
+        <v>1</v>
+      </c>
+      <c r="L159" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>53</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J160" s="6">
+        <v>5</v>
+      </c>
+      <c r="K160" s="6">
+        <v>3</v>
+      </c>
+      <c r="L160" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J161" s="9">
+        <v>3</v>
+      </c>
+      <c r="K161" s="9">
+        <v>2</v>
+      </c>
+      <c r="L161" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F162" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J162" s="12">
+        <v>0</v>
+      </c>
+      <c r="K162" s="12">
+        <v>1</v>
+      </c>
+      <c r="L162" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>54</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J163" s="6">
+        <v>5</v>
+      </c>
+      <c r="K163" s="6">
+        <v>3</v>
+      </c>
+      <c r="L163" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H164" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J164" s="12">
+        <v>3</v>
+      </c>
+      <c r="K164" s="12">
+        <v>1</v>
+      </c>
+      <c r="L164" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
+        <v>55</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J165" s="6">
+        <v>0</v>
+      </c>
+      <c r="K165" s="6">
+        <v>3</v>
+      </c>
+      <c r="L165" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F166" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J166" s="12">
+        <v>0</v>
+      </c>
+      <c r="K166" s="12">
+        <v>2</v>
+      </c>
+      <c r="L166" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J167" s="9">
+        <v>0</v>
+      </c>
+      <c r="K167" s="9">
+        <v>1</v>
+      </c>
+      <c r="L167" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
+        <v>56</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J168" s="6">
+        <v>5</v>
+      </c>
+      <c r="K168" s="6">
+        <v>7</v>
+      </c>
+      <c r="L168" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J169" s="9">
+        <v>5</v>
+      </c>
+      <c r="K169" s="9">
+        <v>5</v>
+      </c>
+      <c r="L169" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H170" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J170" s="12">
+        <v>3</v>
+      </c>
+      <c r="K170" s="12">
+        <v>3</v>
+      </c>
+      <c r="L170" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J171" s="9">
+        <v>3</v>
+      </c>
+      <c r="K171" s="9">
+        <v>0</v>
+      </c>
+      <c r="L171" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
+        <v>57</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G172" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J172" s="6">
+        <v>0</v>
+      </c>
+      <c r="K172" s="6">
+        <v>5</v>
+      </c>
+      <c r="L172" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
+        <v>58</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J173" s="6">
+        <v>0</v>
+      </c>
+      <c r="K173" s="6">
+        <v>7</v>
+      </c>
+      <c r="L173" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
+        <v>59</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J174" s="6">
+        <v>3</v>
+      </c>
+      <c r="K174" s="6">
+        <v>3</v>
+      </c>
+      <c r="L174" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" s="9">
+        <v>3</v>
+      </c>
+      <c r="K175" s="9">
+        <v>2</v>
+      </c>
+      <c r="L175" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I176" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J176" s="12">
+        <v>3</v>
+      </c>
+      <c r="K176" s="12">
+        <v>1</v>
+      </c>
+      <c r="L176" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J177" s="9">
+        <v>3</v>
+      </c>
+      <c r="K177" s="9">
+        <v>0</v>
+      </c>
+      <c r="L177" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <v>60</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" s="6">
+        <v>5</v>
+      </c>
+      <c r="K178" s="6">
+        <v>3</v>
+      </c>
+      <c r="L178" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J179" s="9">
+        <v>3</v>
+      </c>
+      <c r="K179" s="9">
+        <v>2</v>
+      </c>
+      <c r="L179" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H180" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="I180" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J180" s="12">
+        <v>3</v>
+      </c>
+      <c r="K180" s="12">
+        <v>1</v>
+      </c>
+      <c r="L180" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
+        <v>61</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J181" s="6">
+        <v>3</v>
+      </c>
+      <c r="K181" s="6">
+        <v>3</v>
+      </c>
+      <c r="L181" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H182" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I182" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J182" s="12">
+        <v>3</v>
+      </c>
+      <c r="K182" s="12">
+        <v>2</v>
+      </c>
+      <c r="L182" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J183" s="9">
+        <v>3</v>
+      </c>
+      <c r="K183" s="9">
+        <v>0</v>
+      </c>
+      <c r="L183" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F184" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I184" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J184" s="12">
+        <v>0</v>
+      </c>
+      <c r="K184" s="12">
+        <v>2</v>
+      </c>
+      <c r="L184" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
+        <v>62</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J185" s="6">
+        <v>3</v>
+      </c>
+      <c r="K185" s="6">
+        <v>2</v>
+      </c>
+      <c r="L185" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E186" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J186" s="12">
+        <v>3</v>
+      </c>
+      <c r="K186" s="12">
+        <v>0</v>
+      </c>
+      <c r="L186" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <v>63</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J187" s="6">
+        <v>3</v>
+      </c>
+      <c r="K187" s="6">
+        <v>3</v>
+      </c>
+      <c r="L187" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I188" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J188" s="12">
+        <v>3</v>
+      </c>
+      <c r="K188" s="12">
+        <v>2</v>
+      </c>
+      <c r="L188" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" s="9">
+        <v>0</v>
+      </c>
+      <c r="K189" s="9">
+        <v>1</v>
+      </c>
+      <c r="L189" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
+        <v>64</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G190" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J190" s="6">
+        <v>0</v>
+      </c>
+      <c r="K190" s="6">
+        <v>7</v>
+      </c>
+      <c r="L190" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G191" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J191" s="9">
+        <v>0</v>
+      </c>
+      <c r="K191" s="9">
+        <v>5</v>
+      </c>
+      <c r="L191" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <v>65</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G192" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J192" s="6">
+        <v>5</v>
+      </c>
+      <c r="K192" s="6">
+        <v>7</v>
+      </c>
+      <c r="L192" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G193" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J193" s="9">
+        <v>3</v>
+      </c>
+      <c r="K193" s="9">
+        <v>5</v>
+      </c>
+      <c r="L193" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <v>66</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J194" s="6">
+        <v>0</v>
+      </c>
+      <c r="K194" s="6">
+        <v>3</v>
+      </c>
+      <c r="L194" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J195" s="9">
+        <v>0</v>
+      </c>
+      <c r="K195" s="9">
+        <v>2</v>
+      </c>
+      <c r="L195" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F196" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I196" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J196" s="12">
+        <v>0</v>
+      </c>
+      <c r="K196" s="12">
+        <v>1</v>
+      </c>
+      <c r="L196" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
+        <v>67</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J197" s="6">
+        <v>3</v>
+      </c>
+      <c r="K197" s="6">
+        <v>3</v>
+      </c>
+      <c r="L197" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G198" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H198" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="I198" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J198" s="12">
+        <v>3</v>
+      </c>
+      <c r="K198" s="12">
+        <v>2</v>
+      </c>
+      <c r="L198" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J199" s="9">
+        <v>3</v>
+      </c>
+      <c r="K199" s="9">
+        <v>1</v>
+      </c>
+      <c r="L199" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G200" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="H200" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="I200" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J200" s="18">
+        <v>3</v>
+      </c>
+      <c r="K200" s="18">
+        <v>0</v>
+      </c>
+      <c r="L200" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:L1"/>

--- a/public/results.xlsx
+++ b/public/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="243">
   <si>
     <t>RESULTS</t>
   </si>
@@ -268,6 +268,30 @@
     <t>MOHAMMED MD SHOYEB ALI</t>
   </si>
   <si>
+    <t>AUX4</t>
+  </si>
+  <si>
+    <t>ESSAY WRITING TLG</t>
+  </si>
+  <si>
+    <t>DA709</t>
+  </si>
+  <si>
+    <t>NIZAM</t>
+  </si>
+  <si>
+    <t>DA968</t>
+  </si>
+  <si>
+    <t>ZAKRIYA</t>
+  </si>
+  <si>
+    <t>DA966</t>
+  </si>
+  <si>
+    <t>SHIAK HUSAIN BASHA</t>
+  </si>
+  <si>
     <t>AUX16</t>
   </si>
   <si>
@@ -340,6 +364,30 @@
     <t>N RIYAZ &amp; Team</t>
   </si>
   <si>
+    <t>AUY52</t>
+  </si>
+  <si>
+    <t>MATHS TALENT</t>
+  </si>
+  <si>
+    <t>DA956</t>
+  </si>
+  <si>
+    <t>TOUQEER</t>
+  </si>
+  <si>
+    <t>DA522</t>
+  </si>
+  <si>
+    <t>T MUHAMMED KHIZER</t>
+  </si>
+  <si>
+    <t>DA678</t>
+  </si>
+  <si>
+    <t>AKHLAQ</t>
+  </si>
+  <si>
     <t>AUY54</t>
   </si>
   <si>
@@ -376,6 +424,42 @@
     <t>SHAFAQATULLAH</t>
   </si>
   <si>
+    <t>AUZ71</t>
+  </si>
+  <si>
+    <t>SCIENCE EXPERIMENT</t>
+  </si>
+  <si>
+    <t>FASI &amp; Team</t>
+  </si>
+  <si>
+    <t>MAJID RAZA &amp; Team</t>
+  </si>
+  <si>
+    <t>ATX21</t>
+  </si>
+  <si>
+    <t>TWEETING</t>
+  </si>
+  <si>
+    <t>DA553</t>
+  </si>
+  <si>
+    <t>SAHIL ANSARI</t>
+  </si>
+  <si>
+    <t>DA938</t>
+  </si>
+  <si>
+    <t>ANSARI MUHAMMED RAZA</t>
+  </si>
+  <si>
+    <t>DA797</t>
+  </si>
+  <si>
+    <t>RAYYAN</t>
+  </si>
+  <si>
     <t>ATX19</t>
   </si>
   <si>
@@ -454,6 +538,15 @@
     <t>TAFAZZUL HUSAIN</t>
   </si>
   <si>
+    <t>AUZ67</t>
+  </si>
+  <si>
+    <t>FACE TO FACE ENG</t>
+  </si>
+  <si>
+    <t>TAHMEED &amp; Team</t>
+  </si>
+  <si>
     <t>AK1</t>
   </si>
   <si>
@@ -490,6 +583,21 @@
     <t>ZAID &amp; Team</t>
   </si>
   <si>
+    <t>AK11</t>
+  </si>
+  <si>
+    <t>MAGAZINE</t>
+  </si>
+  <si>
+    <t>HAMMAD RAJA &amp; Team</t>
+  </si>
+  <si>
+    <t>AK8</t>
+  </si>
+  <si>
+    <t>REELS MAKING</t>
+  </si>
+  <si>
     <t>AUY41</t>
   </si>
   <si>
@@ -517,6 +625,12 @@
     <t>SEMINAR</t>
   </si>
   <si>
+    <t>AUY49</t>
+  </si>
+  <si>
+    <t>BILINGUAL QUIZ</t>
+  </si>
+  <si>
     <t>AUX15</t>
   </si>
   <si>
@@ -568,12 +682,6 @@
     <t>NEWS READING ENG</t>
   </si>
   <si>
-    <t>DA553</t>
-  </si>
-  <si>
-    <t>SAHIL ANSARI</t>
-  </si>
-  <si>
     <t>ATY33</t>
   </si>
   <si>
@@ -629,9 +737,6 @@
   </si>
   <si>
     <t>WALL PAINTING</t>
-  </si>
-  <si>
-    <t>MAJID RAZA &amp; Team</t>
   </si>
   <si>
     <t>TASIR HUSAIN &amp; Team</t>
@@ -1155,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L116"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
@@ -2329,8 +2434,8 @@
       <c r="E32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>24</v>
+      <c r="F32" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>89</v>
@@ -2342,13 +2447,13 @@
         <v>26</v>
       </c>
       <c r="J32" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K32" s="14">
         <v>2</v>
       </c>
       <c r="L32" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2409,10 +2514,10 @@
         <v>24</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>26</v>
@@ -2443,26 +2548,26 @@
       <c r="E35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>1</v>
+      <c r="F35" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J35" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" s="10">
         <v>2</v>
       </c>
       <c r="L35" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2485,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>21</v>
@@ -2508,10 +2613,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>17</v>
@@ -2520,25 +2625,25 @@
         <v>18</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="I37" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J37" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37" s="6">
         <v>3</v>
       </c>
       <c r="L37" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2557,26 +2662,26 @@
       <c r="E38" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>24</v>
+      <c r="F38" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="G38" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" s="14">
         <v>2</v>
       </c>
       <c r="L38" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2595,26 +2700,26 @@
       <c r="E39" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>24</v>
+      <c r="F39" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J39" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2622,37 +2727,37 @@
         <v>13</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>107</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J40" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K40" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L40" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2674,11 +2779,11 @@
       <c r="F41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>1</v>
+      <c r="G41" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>21</v>
@@ -2687,86 +2792,86 @@
         <v>3</v>
       </c>
       <c r="K41" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L41" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="14">
+        <v>3</v>
+      </c>
+      <c r="K42" s="14">
+        <v>1</v>
+      </c>
+      <c r="L42" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>14</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="6">
+        <v>3</v>
+      </c>
+      <c r="K43" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>14</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>3</v>
-      </c>
-      <c r="L42" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="10">
-        <v>0</v>
-      </c>
-      <c r="K43" s="10">
-        <v>2</v>
-      </c>
-      <c r="L43" s="12">
-        <v>2</v>
+      <c r="L43" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2783,28 +2888,28 @@
         <v>22</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>113</v>
+        <v>23</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J44" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L44" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2812,37 +2917,37 @@
         <v>15</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J45" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K45" s="6">
         <v>3</v>
       </c>
       <c r="L45" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2861,26 +2966,26 @@
       <c r="E46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>1</v>
+      <c r="F46" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J46" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46" s="14">
         <v>2</v>
       </c>
       <c r="L46" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2899,102 +3004,102 @@
       <c r="E47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>1</v>
+      <c r="F47" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="10">
+        <v>3</v>
+      </c>
+      <c r="K47" s="10">
+        <v>1</v>
+      </c>
+      <c r="L47" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J48" s="14">
+        <v>3</v>
+      </c>
+      <c r="K48" s="14">
         <v>0</v>
       </c>
-      <c r="K47" s="10">
-        <v>1</v>
-      </c>
-      <c r="L47" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="L48" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>16</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="B49" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" s="6">
-        <v>3</v>
-      </c>
-      <c r="K48" s="6">
-        <v>3</v>
-      </c>
-      <c r="L48" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="10">
-        <v>3</v>
-      </c>
-      <c r="K49" s="10">
-        <v>2</v>
-      </c>
-      <c r="L49" s="12">
-        <v>5</v>
+      <c r="F49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>3</v>
+      </c>
+      <c r="L49" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3011,16 +3116,16 @@
         <v>22</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>21</v>
@@ -3029,86 +3134,86 @@
         <v>0</v>
       </c>
       <c r="K50" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <v>1</v>
+      </c>
+      <c r="L51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>17</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="B52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="6">
-        <v>3</v>
-      </c>
-      <c r="K51" s="6">
-        <v>3</v>
-      </c>
-      <c r="L51" s="8">
+      <c r="G52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="6">
+        <v>3</v>
+      </c>
+      <c r="K52" s="6">
+        <v>3</v>
+      </c>
+      <c r="L52" s="8">
         <v>6</v>
-      </c>
-    </row>
-    <row r="52" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="14">
-        <v>3</v>
-      </c>
-      <c r="K52" s="14">
-        <v>2</v>
-      </c>
-      <c r="L52" s="16">
-        <v>5</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3125,104 +3230,104 @@
         <v>22</v>
       </c>
       <c r="E53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0</v>
+      </c>
+      <c r="K53" s="10">
+        <v>2</v>
+      </c>
+      <c r="L53" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I53" s="10" t="s">
+      <c r="F54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="10">
-        <v>3</v>
-      </c>
-      <c r="K53" s="10">
-        <v>1</v>
-      </c>
-      <c r="L53" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="J54" s="14">
+        <v>0</v>
+      </c>
+      <c r="K54" s="14">
+        <v>1</v>
+      </c>
+      <c r="L54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>18</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="B55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F55" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" s="6">
+      <c r="G55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="6">
         <v>5</v>
       </c>
-      <c r="K54" s="6">
-        <v>3</v>
-      </c>
-      <c r="L54" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="10">
-        <v>5</v>
-      </c>
-      <c r="K55" s="10">
-        <v>2</v>
-      </c>
-      <c r="L55" s="12">
+      <c r="K55" s="6">
         <v>7</v>
+      </c>
+      <c r="L55" s="8">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3239,28 +3344,28 @@
         <v>22</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="I56" s="14" t="s">
         <v>21</v>
       </c>
       <c r="J56" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L56" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3268,13 +3373,13 @@
         <v>19</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>18</v>
@@ -3283,13 +3388,13 @@
         <v>19</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J57" s="6">
         <v>5</v>
@@ -3321,13 +3426,13 @@
         <v>19</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J58" s="14">
         <v>5</v>
@@ -3359,10 +3464,10 @@
         <v>19</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>26</v>
@@ -3378,41 +3483,41 @@
       </c>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="14" t="s">
+      <c r="A60" s="5">
+        <v>20</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" s="14">
-        <v>3</v>
-      </c>
-      <c r="K60" s="14">
-        <v>0</v>
-      </c>
-      <c r="L60" s="16">
-        <v>3</v>
+      <c r="G60" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="6">
+        <v>3</v>
+      </c>
+      <c r="K60" s="6">
+        <v>3</v>
+      </c>
+      <c r="L60" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3428,143 +3533,143 @@
       <c r="D61" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>1</v>
+      <c r="E61" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I61" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="10">
+        <v>3</v>
+      </c>
+      <c r="K61" s="10">
+        <v>2</v>
+      </c>
+      <c r="L61" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="10">
-        <v>3</v>
-      </c>
-      <c r="K61" s="10">
+      <c r="J62" s="14">
         <v>0</v>
       </c>
-      <c r="L61" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>20</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="K62" s="14">
+        <v>1</v>
+      </c>
+      <c r="L62" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>21</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="6">
-        <v>3</v>
-      </c>
-      <c r="K62" s="6">
-        <v>10</v>
-      </c>
-      <c r="L62" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="10" t="s">
+      <c r="G63" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="6">
+        <v>3</v>
+      </c>
+      <c r="K63" s="6">
+        <v>3</v>
+      </c>
+      <c r="L63" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J63" s="10">
-        <v>0</v>
-      </c>
-      <c r="K63" s="10">
-        <v>7</v>
-      </c>
-      <c r="L63" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>21</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="6">
-        <v>3</v>
-      </c>
-      <c r="K64" s="6">
-        <v>10</v>
-      </c>
-      <c r="L64" s="8">
-        <v>13</v>
+      <c r="G64" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="14">
+        <v>3</v>
+      </c>
+      <c r="K64" s="14">
+        <v>2</v>
+      </c>
+      <c r="L64" s="16">
+        <v>5</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3581,28 +3686,28 @@
         <v>22</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J65" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K65" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L65" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3610,37 +3715,37 @@
         <v>22</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>1</v>
+      <c r="F66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J66" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K66" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L66" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3659,102 +3764,102 @@
       <c r="E67" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>1</v>
+      <c r="F67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J67" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K67" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L67" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="14">
+        <v>3</v>
+      </c>
+      <c r="K68" s="14">
+        <v>1</v>
+      </c>
+      <c r="L68" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>23</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="B69" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" s="6">
-        <v>3</v>
-      </c>
-      <c r="K68" s="6">
-        <v>3</v>
-      </c>
-      <c r="L68" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="10">
-        <v>0</v>
-      </c>
-      <c r="K69" s="10">
-        <v>2</v>
-      </c>
-      <c r="L69" s="12">
-        <v>2</v>
+      <c r="F69" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="6">
+        <v>5</v>
+      </c>
+      <c r="K69" s="6">
+        <v>3</v>
+      </c>
+      <c r="L69" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3771,104 +3876,104 @@
         <v>22</v>
       </c>
       <c r="E70" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="14">
+        <v>5</v>
+      </c>
+      <c r="K70" s="14">
+        <v>2</v>
+      </c>
+      <c r="L70" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I70" s="14" t="s">
+      <c r="F71" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="10">
+        <v>5</v>
+      </c>
+      <c r="K71" s="10">
+        <v>1</v>
+      </c>
+      <c r="L71" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I72" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J72" s="14">
+        <v>3</v>
+      </c>
+      <c r="K72" s="14">
         <v>0</v>
       </c>
-      <c r="K70" s="14">
-        <v>1</v>
-      </c>
-      <c r="L70" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>24</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" s="6">
-        <v>3</v>
-      </c>
-      <c r="K71" s="6">
-        <v>10</v>
-      </c>
-      <c r="L71" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>25</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" s="6">
-        <v>3</v>
-      </c>
-      <c r="K72" s="6">
-        <v>3</v>
-      </c>
-      <c r="L72" s="8">
-        <v>6</v>
+      <c r="L72" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3884,67 +3989,67 @@
       <c r="D73" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>23</v>
+      <c r="E73" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J73" s="10">
         <v>3</v>
       </c>
       <c r="K73" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L73" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>173</v>
+      <c r="F74" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J74" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K74" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L74" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3963,64 +4068,64 @@
       <c r="E75" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>175</v>
+      <c r="F75" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J75" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K75" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L75" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="H76" s="14" t="s">
+      <c r="A76" s="5">
+        <v>25</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I76" s="14" t="s">
+      <c r="C76" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J76" s="14">
-        <v>0</v>
-      </c>
-      <c r="K76" s="14">
-        <v>1</v>
-      </c>
-      <c r="L76" s="16">
-        <v>1</v>
+      <c r="J76" s="6">
+        <v>3</v>
+      </c>
+      <c r="K76" s="6">
+        <v>10</v>
+      </c>
+      <c r="L76" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4037,16 +4142,16 @@
         <v>22</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="10" t="s">
-        <v>179</v>
+      <c r="G77" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>26</v>
@@ -4055,48 +4160,48 @@
         <v>0</v>
       </c>
       <c r="K77" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L77" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J78" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K78" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L78" s="8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4113,16 +4218,16 @@
         <v>22</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G79" s="10" t="s">
-        <v>177</v>
+      <c r="G79" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>21</v>
@@ -4131,48 +4236,48 @@
         <v>0</v>
       </c>
       <c r="K79" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L79" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>185</v>
+      <c r="F80" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J80" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K80" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L80" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4191,140 +4296,140 @@
       <c r="E81" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>123</v>
+      <c r="F81" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J81" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K81" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L81" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>28</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0</v>
+      </c>
+      <c r="K82" s="6">
+        <v>10</v>
+      </c>
+      <c r="L82" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="10">
+        <v>0</v>
+      </c>
+      <c r="K83" s="10">
+        <v>7</v>
+      </c>
+      <c r="L83" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>29</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J82" s="14">
-        <v>0</v>
-      </c>
-      <c r="K82" s="14">
-        <v>1</v>
-      </c>
-      <c r="L82" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>29</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J83" s="6">
-        <v>5</v>
-      </c>
-      <c r="K83" s="6">
-        <v>3</v>
-      </c>
-      <c r="L83" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J84" s="14">
-        <v>5</v>
-      </c>
-      <c r="K84" s="14">
-        <v>2</v>
-      </c>
-      <c r="L84" s="16">
-        <v>7</v>
+      <c r="K84" s="6">
+        <v>10</v>
+      </c>
+      <c r="L84" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4341,16 +4446,16 @@
         <v>22</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G85" s="10" t="s">
-        <v>191</v>
+      <c r="G85" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>21</v>
@@ -4359,10 +4464,10 @@
         <v>3</v>
       </c>
       <c r="K85" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L85" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4370,37 +4475,37 @@
         <v>30</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>1</v>
+      <c r="F86" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J86" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K86" s="6">
         <v>3</v>
       </c>
       <c r="L86" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4423,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>26</v>
@@ -4461,13 +4566,13 @@
         <v>1</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J88" s="14">
         <v>0</v>
@@ -4484,13 +4589,13 @@
         <v>31</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>18</v>
@@ -4498,61 +4603,61 @@
       <c r="F89" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>197</v>
+      <c r="G89" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J89" s="6">
         <v>3</v>
       </c>
       <c r="K89" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L89" s="8">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="I90" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J90" s="14">
-        <v>3</v>
-      </c>
-      <c r="K90" s="14">
-        <v>2</v>
-      </c>
-      <c r="L90" s="16">
+      <c r="A90" s="5">
+        <v>32</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="6">
         <v>5</v>
+      </c>
+      <c r="K90" s="6">
+        <v>3</v>
+      </c>
+      <c r="L90" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="91" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4569,107 +4674,943 @@
         <v>22</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J91" s="10">
+        <v>3</v>
+      </c>
+      <c r="K91" s="10">
+        <v>2</v>
+      </c>
+      <c r="L91" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" s="14">
+        <v>3</v>
+      </c>
+      <c r="K92" s="14">
+        <v>1</v>
+      </c>
+      <c r="L92" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="10">
+        <v>3</v>
+      </c>
+      <c r="K93" s="10">
         <v>0</v>
       </c>
-      <c r="K91" s="10">
-        <v>1</v>
-      </c>
-      <c r="L91" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="L93" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>33</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" s="6">
+        <v>3</v>
+      </c>
+      <c r="K94" s="6">
+        <v>3</v>
+      </c>
+      <c r="L94" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="10">
+        <v>3</v>
+      </c>
+      <c r="K95" s="10">
+        <v>2</v>
+      </c>
+      <c r="L95" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>34</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="6">
+        <v>5</v>
+      </c>
+      <c r="K96" s="6">
+        <v>3</v>
+      </c>
+      <c r="L96" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" s="10">
+        <v>3</v>
+      </c>
+      <c r="K97" s="10">
+        <v>2</v>
+      </c>
+      <c r="L97" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" s="14">
+        <v>0</v>
+      </c>
+      <c r="K98" s="14">
+        <v>1</v>
+      </c>
+      <c r="L98" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="10">
+        <v>0</v>
+      </c>
+      <c r="K99" s="10">
+        <v>1</v>
+      </c>
+      <c r="L99" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>35</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E92" s="6" t="s">
+      <c r="H100" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>2</v>
+      </c>
+      <c r="L100" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" s="10">
+        <v>0</v>
+      </c>
+      <c r="K101" s="10">
+        <v>1</v>
+      </c>
+      <c r="L101" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>36</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F102" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102" s="6">
+        <v>3</v>
+      </c>
+      <c r="K102" s="6">
+        <v>3</v>
+      </c>
+      <c r="L102" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J103" s="10">
+        <v>3</v>
+      </c>
+      <c r="K103" s="10">
+        <v>2</v>
+      </c>
+      <c r="L103" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" s="14">
+        <v>0</v>
+      </c>
+      <c r="K104" s="14">
+        <v>1</v>
+      </c>
+      <c r="L104" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>37</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="6" t="s">
+      <c r="G105" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="6">
+        <v>5</v>
+      </c>
+      <c r="K105" s="6">
+        <v>3</v>
+      </c>
+      <c r="L105" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" s="14">
+        <v>5</v>
+      </c>
+      <c r="K106" s="14">
+        <v>2</v>
+      </c>
+      <c r="L106" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I107" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J107" s="10">
+        <v>3</v>
+      </c>
+      <c r="K107" s="10">
+        <v>1</v>
+      </c>
+      <c r="L107" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>38</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="6">
+        <v>0</v>
+      </c>
+      <c r="K108" s="6">
+        <v>3</v>
+      </c>
+      <c r="L108" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" s="10">
+        <v>0</v>
+      </c>
+      <c r="K109" s="10">
+        <v>2</v>
+      </c>
+      <c r="L109" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" s="14">
+        <v>0</v>
+      </c>
+      <c r="K110" s="14">
+        <v>1</v>
+      </c>
+      <c r="L110" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>39</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="6">
+        <v>3</v>
+      </c>
+      <c r="K111" s="6">
+        <v>3</v>
+      </c>
+      <c r="L111" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="14">
+        <v>3</v>
+      </c>
+      <c r="K112" s="14">
+        <v>2</v>
+      </c>
+      <c r="L112" s="16">
         <v>5</v>
       </c>
-      <c r="K92" s="6">
+    </row>
+    <row r="113" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" s="10">
+        <v>0</v>
+      </c>
+      <c r="K113" s="10">
+        <v>1</v>
+      </c>
+      <c r="L113" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>40</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114" s="6">
+        <v>5</v>
+      </c>
+      <c r="K114" s="6">
         <v>10</v>
       </c>
-      <c r="L92" s="8">
+      <c r="L114" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="93" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="18" t="s">
+    <row r="115" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="F115" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J93" s="18">
+      <c r="G115" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="18">
         <v>5</v>
       </c>
-      <c r="K93" s="18">
+      <c r="K115" s="18">
         <v>7</v>
       </c>
-      <c r="L93" s="20">
+      <c r="L115" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:L1"/>
